--- a/results/comparaison/WM/azimuth/median_raw_data.xlsx
+++ b/results/comparaison/WM/azimuth/median_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -670,55 +682,55 @@
         <v>9.899081236107548</v>
       </c>
       <c r="C2">
+        <v>68.22006910228025</v>
+      </c>
+      <c r="D2">
         <v>45.73339433832574</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>136.3289233325182</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>151.0446708027557</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>103.6929567488901</v>
+      </c>
+      <c r="H2">
         <v>158.9815331703435</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>98.52486469488616</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>39.82381482639095</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>27.86338946027645</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>58.3564190125127</v>
-      </c>
-      <c r="K2">
-        <v>33.91360943319449</v>
-      </c>
-      <c r="L2">
-        <v>58.25243332343341</v>
       </c>
       <c r="M2">
         <v>168.4672463642159</v>
       </c>
       <c r="N2">
+        <v>33.91360943319449</v>
+      </c>
+      <c r="O2">
+        <v>58.25243332343341</v>
+      </c>
+      <c r="P2">
         <v>42.78628175129141</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>21.48340728896741</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>112.7325410437932</v>
       </c>
-      <c r="Q2">
-        <v>49.83846859837071</v>
-      </c>
-      <c r="R2">
-        <v>114.5683352605341</v>
-      </c>
       <c r="S2">
-        <v>23.80491720170791</v>
+        <v>49.28512211389165</v>
       </c>
       <c r="T2">
         <v>42.61629424706155</v>
@@ -742,259 +754,304 @@
         <v>39.69402998707636</v>
       </c>
       <c r="AA2">
-        <v>40.40570270509534</v>
+        <v>23.72378604193866</v>
       </c>
       <c r="AB2">
-        <v>55.93096435603601</v>
+        <v>54.76925978387297</v>
       </c>
       <c r="AC2">
-        <v>140.4628306995996</v>
+        <v>123.8974513491619</v>
       </c>
       <c r="AD2">
-        <v>152.4566118795356</v>
+        <v>92.7104465272995</v>
       </c>
       <c r="AE2">
+        <v>103.488935820793</v>
+      </c>
+      <c r="AF2">
+        <v>18.97023782081628</v>
+      </c>
+      <c r="AG2">
+        <v>133.4224566159785</v>
+      </c>
+      <c r="AH2">
+        <v>25.69905206042211</v>
+      </c>
+      <c r="AI2">
+        <v>41.6066910549244</v>
+      </c>
+      <c r="AJ2">
+        <v>55.68638354741157</v>
+      </c>
+      <c r="AK2">
         <v>124.2109712004761</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
+        <v>136.1809808336859</v>
+      </c>
+      <c r="AM2">
         <v>112.9149190177208</v>
       </c>
-      <c r="AG2">
-        <v>60.5933158499527</v>
-      </c>
-      <c r="AH2">
+      <c r="AN2">
         <v>109.3623217791978</v>
       </c>
-      <c r="AI2">
-        <v>46.04681598327038</v>
-      </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>121.9911223121244</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
+        <v>37.67089786389261</v>
+      </c>
+      <c r="AQ2">
+        <v>44.34497254713649</v>
+      </c>
+      <c r="AR2">
         <v>42.54036141989743</v>
       </c>
-      <c r="AL2">
-        <v>123.8974513491619</v>
-      </c>
-      <c r="AM2">
-        <v>108.4981753483919</v>
-      </c>
-      <c r="AN2">
-        <v>115.4239143832696</v>
-      </c>
-      <c r="AO2">
-        <v>125.7576182636533</v>
-      </c>
-      <c r="AP2">
-        <v>106.5290311994593</v>
-      </c>
-      <c r="AQ2">
-        <v>53.26247186194404</v>
-      </c>
-      <c r="AR2">
-        <v>47.01985879205286</v>
-      </c>
       <c r="AS2">
-        <v>47.19782124427653</v>
+        <v>97.53336072996515</v>
       </c>
       <c r="AT2">
-        <v>92.7104465272995</v>
+        <v>54.63710003784065</v>
       </c>
       <c r="AU2">
-        <v>18.97023782081628</v>
+        <v>35.94938244089</v>
       </c>
       <c r="AV2">
-        <v>133.4224566159785</v>
+        <v>50.09193050751718</v>
       </c>
       <c r="AW2">
-        <v>25.69905206042211</v>
+        <v>135.0576631530185</v>
       </c>
       <c r="AX2">
-        <v>41.6066910549244</v>
+        <v>146.0118978496687</v>
       </c>
       <c r="AY2">
-        <v>113.2959845694914</v>
+        <v>140.5064176430085</v>
       </c>
       <c r="AZ2">
-        <v>91.90332846107177</v>
+        <v>117.3088045151194</v>
       </c>
       <c r="BA2">
+        <v>147.7404782873921</v>
+      </c>
+      <c r="BB2">
+        <v>142.7651095062929</v>
+      </c>
+      <c r="BC2">
+        <v>100.9335449768363</v>
+      </c>
+      <c r="BD2">
+        <v>103.4783040319729</v>
+      </c>
+      <c r="BE2">
+        <v>103.8452901320916</v>
+      </c>
+      <c r="BF2">
+        <v>139.6719778545831</v>
+      </c>
+      <c r="BG2">
+        <v>109.819691650698</v>
+      </c>
+      <c r="BH2">
+        <v>152.7846401489799</v>
+      </c>
+      <c r="BI2">
+        <v>92.60738526215336</v>
+      </c>
+      <c r="BJ2">
+        <v>103.9198286339339</v>
+      </c>
+      <c r="BK2">
+        <v>135.514760548791</v>
+      </c>
+      <c r="BL2">
         <v>127.6170433508271</v>
       </c>
-      <c r="BB2">
-        <v>87.39797161061145</v>
-      </c>
-      <c r="BC2">
-        <v>73.52798097900779</v>
-      </c>
-      <c r="BD2">
-        <v>135.5188539846316</v>
-      </c>
-      <c r="BE2">
-        <v>99.48195051601638</v>
-      </c>
-      <c r="BF2">
-        <v>167.593870478244</v>
-      </c>
-      <c r="BG2">
-        <v>98.7167553721093</v>
-      </c>
-      <c r="BH2">
-        <v>136.1733387233745</v>
-      </c>
-      <c r="BI2">
-        <v>140.2693210836459</v>
-      </c>
-      <c r="BJ2">
-        <v>112.3856091456107</v>
-      </c>
-      <c r="BK2">
-        <v>135.9261643834147</v>
-      </c>
-      <c r="BL2">
-        <v>106.1345538988462</v>
-      </c>
       <c r="BM2">
-        <v>106.4025737253737</v>
+        <v>107.4883460370636</v>
       </c>
       <c r="BN2">
-        <v>108.0086562738</v>
+        <v>103.2993338248242</v>
       </c>
       <c r="BO2">
-        <v>108.4827371360823</v>
+        <v>128.4803458654354</v>
       </c>
       <c r="BP2">
-        <v>108.4619486570786</v>
+        <v>29.47355175750223</v>
       </c>
       <c r="BQ2">
-        <v>158.0035297914677</v>
+        <v>84.80305346131536</v>
       </c>
       <c r="BR2">
-        <v>101.7722060702966</v>
+        <v>128.0758617570258</v>
       </c>
       <c r="BS2">
-        <v>130.853894664927</v>
+        <v>69.78777269598507</v>
       </c>
       <c r="BT2">
-        <v>147.3457588324106</v>
+        <v>88.48669031322675</v>
       </c>
       <c r="BU2">
-        <v>28.92714518289517</v>
+        <v>73.27851216089603</v>
       </c>
       <c r="BV2">
-        <v>156.2009539844698</v>
+        <v>98.38032485250081</v>
       </c>
       <c r="BW2">
-        <v>101.2772671936759</v>
+        <v>45.19953928162206</v>
       </c>
       <c r="BX2">
-        <v>103.9506485657598</v>
+        <v>102.8049015286673</v>
       </c>
       <c r="BY2">
-        <v>151.0408590658266</v>
+        <v>163.8139179363311</v>
       </c>
       <c r="BZ2">
-        <v>17.60552817297496</v>
+        <v>42.00577793522351</v>
       </c>
       <c r="CA2">
-        <v>55.42841028372588</v>
+        <v>135.7241827298459</v>
       </c>
       <c r="CB2">
-        <v>35.28559358821747</v>
+        <v>53.0574946167356</v>
       </c>
       <c r="CC2">
-        <v>163.593949430075</v>
+        <v>25.01392193776557</v>
       </c>
       <c r="CD2">
-        <v>131.0429221658143</v>
+        <v>86.58520954894004</v>
       </c>
       <c r="CE2">
-        <v>67.51555891018558</v>
+        <v>43.97410349265773</v>
       </c>
       <c r="CF2">
-        <v>16.51683432603736</v>
+        <v>157.4383887506692</v>
       </c>
       <c r="CG2">
-        <v>164.6950292555152</v>
+        <v>61.31175024285754</v>
       </c>
       <c r="CH2">
-        <v>131.2664470059566</v>
+        <v>63.44465260337732</v>
       </c>
       <c r="CI2">
-        <v>150.8116393427495</v>
+        <v>170.0588319951033</v>
       </c>
       <c r="CJ2">
-        <v>48.37456823439695</v>
+        <v>62.84764700062513</v>
       </c>
       <c r="CK2">
-        <v>120.1303292898632</v>
+        <v>18.82479414411199</v>
       </c>
       <c r="CL2">
-        <v>53.67542396870459</v>
+        <v>33.2825546910411</v>
       </c>
       <c r="CM2">
-        <v>69.8142658355123</v>
+        <v>49.2121673484498</v>
       </c>
       <c r="CN2">
-        <v>23.46219384353291</v>
+        <v>75.25952227738173</v>
       </c>
       <c r="CO2">
-        <v>124.637564836793</v>
+        <v>94.80607499791094</v>
       </c>
       <c r="CP2">
-        <v>169.1498675047662</v>
+        <v>13.80317433849388</v>
       </c>
       <c r="CQ2">
-        <v>62.76409918600129</v>
+        <v>13.25692278744422</v>
       </c>
       <c r="CR2">
-        <v>64.67220620249677</v>
+        <v>43.70235881678798</v>
       </c>
       <c r="CS2">
-        <v>43.70235881678798</v>
+        <v>48.12942599785958</v>
+      </c>
+      <c r="CT2">
+        <v>67.85609377534919</v>
+      </c>
+      <c r="CU2">
+        <v>100.8673119981602</v>
+      </c>
+      <c r="CV2">
+        <v>165.1172442538979</v>
+      </c>
+      <c r="CW2">
+        <v>66.5741729675713</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>10.4034487907063</v>
       </c>
+      <c r="C3">
+        <v>58.9233775222442</v>
+      </c>
+      <c r="D3">
+        <v>99.77015797640956</v>
+      </c>
       <c r="E3">
+        <v>136.8030971805009</v>
+      </c>
+      <c r="F3">
         <v>100.9509689778484</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>102.9712429209647</v>
+      </c>
+      <c r="H3">
         <v>154.2888336114601</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>129.9533390322919</v>
+      </c>
+      <c r="J3">
         <v>24.75082359316997</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>20.3513378613446</v>
       </c>
-      <c r="K3">
-        <v>158.9485402021072</v>
+      <c r="L3">
+        <v>68.76312642917748</v>
       </c>
       <c r="M3">
         <v>18.55505621726263</v>
       </c>
       <c r="N3">
+        <v>158.9485402021072</v>
+      </c>
+      <c r="O3">
+        <v>63.99261839654213</v>
+      </c>
+      <c r="P3">
         <v>33.67304794977326</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>158.8376994369022</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>79.7505395208857</v>
       </c>
       <c r="S3">
-        <v>135.6909852548055</v>
+        <v>138.5215326765338</v>
+      </c>
+      <c r="T3">
+        <v>41.17990680048575</v>
+      </c>
+      <c r="U3">
+        <v>64.72427060624473</v>
+      </c>
+      <c r="V3">
+        <v>78.1430206943871</v>
       </c>
       <c r="W3">
         <v>44.3924156492464</v>
       </c>
+      <c r="X3">
+        <v>50.52653138979802</v>
+      </c>
       <c r="Y3">
         <v>21.36238173248694</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>38.05281740532197</v>
       </c>
       <c r="AA3">
-        <v>26.96391814565765</v>
+        <v>150.2452854116741</v>
       </c>
       <c r="AB3">
-        <v>51.60361583476249</v>
+        <v>60.35710514209968</v>
+      </c>
+      <c r="AC3">
+        <v>111.3422594124045</v>
+      </c>
+      <c r="AD3">
+        <v>45.16159201279567</v>
+      </c>
+      <c r="AF3">
+        <v>18.78743412882459</v>
+      </c>
+      <c r="AG3">
+        <v>139.6752448980843</v>
+      </c>
+      <c r="AH3">
+        <v>35.35875698038586</v>
+      </c>
+      <c r="AI3">
+        <v>37.2726224812981</v>
+      </c>
+      <c r="AJ3">
+        <v>54.02834377185167</v>
+      </c>
+      <c r="AL3">
+        <v>134.6290427637695</v>
+      </c>
+      <c r="AM3">
+        <v>106.9411132298077</v>
+      </c>
+      <c r="AN3">
+        <v>117.3586873348374</v>
+      </c>
+      <c r="AO3">
+        <v>120.020151495575</v>
+      </c>
+      <c r="AP3">
+        <v>24.33251615628921</v>
       </c>
       <c r="AQ3">
-        <v>52.47862742656236</v>
+        <v>43.83796698664524</v>
       </c>
       <c r="AR3">
-        <v>41.48429704310411</v>
+        <v>47.41589014851208</v>
       </c>
       <c r="AS3">
-        <v>45.76075656790258</v>
+        <v>114.5639858106788</v>
       </c>
       <c r="AT3">
-        <v>45.16159201279567</v>
+        <v>59.92519486589909</v>
       </c>
       <c r="AU3">
-        <v>18.78743412882459</v>
+        <v>71.24273760410712</v>
+      </c>
+      <c r="AV3">
+        <v>51.88685491970647</v>
       </c>
       <c r="AX3">
-        <v>37.2726224812981</v>
+        <v>140.8573813885376</v>
+      </c>
+      <c r="AY3">
+        <v>138.5080593685488</v>
+      </c>
+      <c r="AZ3">
+        <v>115.3381685270911</v>
+      </c>
+      <c r="BA3">
+        <v>154.44322694995</v>
       </c>
       <c r="BB3">
-        <v>82.98182696939102</v>
+        <v>127.8314358870562</v>
       </c>
       <c r="BC3">
-        <v>78.0674066746286</v>
+        <v>102.0124238056034</v>
+      </c>
+      <c r="BD3">
+        <v>99.06161095672842</v>
+      </c>
+      <c r="BE3">
+        <v>114.3758354602866</v>
       </c>
       <c r="BF3">
-        <v>133.1297833129127</v>
+        <v>119.1134398075095</v>
+      </c>
+      <c r="BG3">
+        <v>109.1557819248476</v>
+      </c>
+      <c r="BH3">
+        <v>108.4909948527486</v>
       </c>
       <c r="BI3">
-        <v>123.3886113660896</v>
+        <v>97.08558528168912</v>
       </c>
       <c r="BJ3">
-        <v>105.6982416747646</v>
+        <v>99.49666159413808</v>
       </c>
       <c r="BK3">
-        <v>107.461685861208</v>
+        <v>121.5160200950819</v>
+      </c>
+      <c r="BM3">
+        <v>103.2382718215062</v>
+      </c>
+      <c r="BN3">
+        <v>104.7169686559274</v>
       </c>
       <c r="BO3">
-        <v>94.52852999822666</v>
+        <v>115.0522860356756</v>
       </c>
       <c r="BP3">
-        <v>111.3341823508279</v>
+        <v>115.5818465156159</v>
       </c>
       <c r="BQ3">
-        <v>108.8225215683657</v>
+        <v>91.49590699395389</v>
       </c>
       <c r="BR3">
-        <v>98.6718655771726</v>
+        <v>128.4494613707535</v>
       </c>
       <c r="BS3">
-        <v>127.4106178647986</v>
+        <v>118.7050813707778</v>
+      </c>
+      <c r="BT3">
+        <v>85.09848109684984</v>
       </c>
       <c r="BU3">
-        <v>87.90390267632512</v>
+        <v>75.0431677778206</v>
       </c>
       <c r="BV3">
-        <v>149.0584116501868</v>
+        <v>102.6971475328329</v>
+      </c>
+      <c r="BW3">
+        <v>111.0582522792192</v>
+      </c>
+      <c r="BX3">
+        <v>99.84820861955492</v>
+      </c>
+      <c r="BY3">
+        <v>160.1206885747374</v>
+      </c>
+      <c r="BZ3">
+        <v>71.0003044200254</v>
+      </c>
+      <c r="CA3">
+        <v>128.2260105453389</v>
+      </c>
+      <c r="CB3">
+        <v>57.57964684368038</v>
+      </c>
+      <c r="CC3">
+        <v>24.73081882984085</v>
+      </c>
+      <c r="CD3">
+        <v>81.3104318188805</v>
+      </c>
+      <c r="CE3">
+        <v>39.24776153651523</v>
+      </c>
+      <c r="CF3">
+        <v>12.87334972894131</v>
       </c>
       <c r="CG3">
-        <v>166.7978421047562</v>
+        <v>53.45543187157158</v>
+      </c>
+      <c r="CH3">
+        <v>102.5467906858352</v>
+      </c>
+      <c r="CI3">
+        <v>169.5230000555373</v>
       </c>
       <c r="CK3">
-        <v>111.5774640299993</v>
+        <v>22.98446162150572</v>
+      </c>
+      <c r="CL3">
+        <v>44.74314383804114</v>
+      </c>
+      <c r="CM3">
+        <v>34.65487902336216</v>
       </c>
       <c r="CN3">
-        <v>33.36876268361124</v>
+        <v>50.88204268311291</v>
+      </c>
+      <c r="CO3">
+        <v>89.4997236574481</v>
+      </c>
+      <c r="CP3">
+        <v>169.2113001422856</v>
+      </c>
+      <c r="CQ3">
+        <v>11.98740947272382</v>
+      </c>
+      <c r="CR3">
+        <v>159.597578409247</v>
+      </c>
+      <c r="CS3">
+        <v>52.41212418092552</v>
+      </c>
+      <c r="CT3">
+        <v>81.92527623296552</v>
+      </c>
+      <c r="CU3">
+        <v>142.6237530284428</v>
+      </c>
+      <c r="CV3">
+        <v>163.2454755412514</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>11.81534237808656</v>
       </c>
+      <c r="C4">
+        <v>66.7042036886359</v>
+      </c>
+      <c r="D4">
+        <v>88.27092808509886</v>
+      </c>
       <c r="E4">
+        <v>122.6208646972333</v>
+      </c>
+      <c r="F4">
         <v>50.6386296434052</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>149.5283578830999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>122.2620871212457</v>
+      </c>
+      <c r="J4">
         <v>32.26750258398424</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>19.11549806724506</v>
       </c>
-      <c r="K4">
-        <v>139.4377787930185</v>
+      <c r="L4">
+        <v>70.00356130768772</v>
       </c>
       <c r="M4">
         <v>22.82515550681336</v>
       </c>
       <c r="N4">
+        <v>139.4377787930185</v>
+      </c>
+      <c r="O4">
+        <v>66.49682186816976</v>
+      </c>
+      <c r="P4">
         <v>40.29949070701719</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>149.1447687051763</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>79.93252659321811</v>
       </c>
       <c r="S4">
-        <v>122.1864059896555</v>
+        <v>47.310872239051</v>
+      </c>
+      <c r="T4">
+        <v>58.99501830328406</v>
+      </c>
+      <c r="U4">
+        <v>71.51192810462615</v>
+      </c>
+      <c r="V4">
+        <v>85.08197624220495</v>
       </c>
       <c r="W4">
         <v>50.53111481820957</v>
       </c>
+      <c r="X4">
+        <v>57.37177424989746</v>
+      </c>
       <c r="Y4">
         <v>27.64076634629585</v>
       </c>
       <c r="Z4">
         <v>42.67978248161633</v>
       </c>
+      <c r="AA4">
+        <v>149.5836243345578</v>
+      </c>
       <c r="AB4">
-        <v>55.09628302957374</v>
+        <v>66.66413528664813</v>
+      </c>
+      <c r="AC4">
+        <v>122.267607604768</v>
+      </c>
+      <c r="AD4">
+        <v>137.0157092523048</v>
+      </c>
+      <c r="AF4">
+        <v>29.38374041014072</v>
+      </c>
+      <c r="AG4">
+        <v>143.5557475288531</v>
       </c>
       <c r="AH4">
+        <v>147.5834875728543</v>
+      </c>
+      <c r="AI4">
+        <v>47.45045546834619</v>
+      </c>
+      <c r="AJ4">
+        <v>64.73868019781499</v>
+      </c>
+      <c r="AL4">
+        <v>137.443294318025</v>
+      </c>
+      <c r="AM4">
+        <v>115.7384592650227</v>
+      </c>
+      <c r="AN4">
         <v>123.6785850340252</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>133.3627339207647</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>162.2997265254919</v>
+      </c>
+      <c r="AQ4">
+        <v>46.41711467754426</v>
+      </c>
+      <c r="AR4">
         <v>56.64714245563964</v>
       </c>
-      <c r="AM4">
-        <v>124.477923406709</v>
-      </c>
-      <c r="AQ4">
-        <v>56.82959884305109</v>
-      </c>
-      <c r="AR4">
-        <v>41.81646699655276</v>
-      </c>
-      <c r="AS4">
-        <v>47.69292672700243</v>
-      </c>
       <c r="AT4">
-        <v>137.0157092523048</v>
+        <v>68.18725956769606</v>
       </c>
       <c r="AU4">
-        <v>29.38374041014072</v>
-      </c>
-      <c r="AX4">
-        <v>47.45045546834619</v>
+        <v>100.6198611405511</v>
+      </c>
+      <c r="AV4">
+        <v>55.11621234415411</v>
+      </c>
+      <c r="AZ4">
+        <v>109.9021754942555</v>
+      </c>
+      <c r="BA4">
+        <v>150.483152302891</v>
       </c>
       <c r="BB4">
-        <v>83.19740772721988</v>
+        <v>105.758847938972</v>
       </c>
       <c r="BC4">
-        <v>77.14519423116978</v>
+        <v>96.93041916762672</v>
+      </c>
+      <c r="BD4">
+        <v>96.53838503733246</v>
+      </c>
+      <c r="BE4">
+        <v>112.4331485083715</v>
+      </c>
+      <c r="BF4">
+        <v>113.3699751441408</v>
+      </c>
+      <c r="BG4">
+        <v>101.579742361158</v>
+      </c>
+      <c r="BH4">
+        <v>115.9497403371368</v>
       </c>
       <c r="BI4">
-        <v>99.53650686795912</v>
+        <v>93.68502196994224</v>
       </c>
       <c r="BJ4">
-        <v>101.0899740114116</v>
+        <v>96.3153874503666</v>
       </c>
       <c r="BK4">
-        <v>89.39538094588295</v>
+        <v>119.3289445136452</v>
+      </c>
+      <c r="BL4">
+        <v>109.9963607407583</v>
+      </c>
+      <c r="BM4">
+        <v>97.89311173364251</v>
+      </c>
+      <c r="BN4">
+        <v>99.35125005149906</v>
+      </c>
+      <c r="BO4">
+        <v>109.6486076867199</v>
       </c>
       <c r="BP4">
-        <v>106.3010779483896</v>
-      </c>
-      <c r="BS4">
-        <v>120.1413680373569</v>
+        <v>108.1422869755508</v>
+      </c>
+      <c r="BQ4">
+        <v>89.48911518519478</v>
+      </c>
+      <c r="BR4">
+        <v>121.2518380673656</v>
+      </c>
+      <c r="BT4">
+        <v>83.57485040259675</v>
       </c>
       <c r="BU4">
-        <v>81.39883480453221</v>
+        <v>76.69432011370974</v>
       </c>
       <c r="BV4">
-        <v>141.9008926378262</v>
+        <v>98.82157608841602</v>
+      </c>
+      <c r="BW4">
+        <v>89.77081312026993</v>
+      </c>
+      <c r="BX4">
+        <v>95.17435041746695</v>
+      </c>
+      <c r="BY4">
+        <v>149.2876669725558</v>
+      </c>
+      <c r="BZ4">
+        <v>61.19779096216494</v>
+      </c>
+      <c r="CA4">
+        <v>125.2830425281731</v>
+      </c>
+      <c r="CB4">
+        <v>57.62245078637994</v>
+      </c>
+      <c r="CC4">
+        <v>25.45823230667105</v>
+      </c>
+      <c r="CD4">
+        <v>70.7222453615768</v>
+      </c>
+      <c r="CE4">
+        <v>34.77362093565486</v>
       </c>
       <c r="CF4">
-        <v>16.15920899206823</v>
+        <v>18.02515105682114</v>
+      </c>
+      <c r="CG4">
+        <v>53.56155741575169</v>
       </c>
       <c r="CH4">
-        <v>119.5586542321175</v>
+        <v>99.3670219500226</v>
+      </c>
+      <c r="CI4">
+        <v>167.2249276142306</v>
       </c>
       <c r="CK4">
-        <v>104.5813624611062</v>
+        <v>21.70825098853896</v>
+      </c>
+      <c r="CL4">
+        <v>40.69224591832785</v>
+      </c>
+      <c r="CM4">
+        <v>33.68694087741593</v>
       </c>
       <c r="CN4">
-        <v>35.28389238900306</v>
+        <v>38.77277774043647</v>
+      </c>
+      <c r="CO4">
+        <v>69.02600170581502</v>
+      </c>
+      <c r="CP4">
+        <v>167.0045686695624</v>
+      </c>
+      <c r="CQ4">
+        <v>14.44039054543416</v>
+      </c>
+      <c r="CR4">
+        <v>74.43075888062978</v>
+      </c>
+      <c r="CS4">
+        <v>53.88555076790754</v>
+      </c>
+      <c r="CT4">
+        <v>54.65571964871403</v>
+      </c>
+      <c r="CU4">
+        <v>33.55712495616936</v>
+      </c>
+      <c r="CV4">
+        <v>153.0765807306253</v>
+      </c>
+      <c r="CW4">
+        <v>70.47284485997926</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>14.42836493358584</v>
       </c>
+      <c r="C5">
+        <v>73.24181421277973</v>
+      </c>
       <c r="D5">
+        <v>100.8130219066604</v>
+      </c>
+      <c r="E5">
         <v>124.3649719130736</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>46.26012089154563</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>142.7111689044291</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>136.3451576580631</v>
+      </c>
+      <c r="J5">
         <v>31.44467087535229</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>163.7486170662436</v>
       </c>
-      <c r="K5">
-        <v>93.41950997278522</v>
+      <c r="L5">
+        <v>74.43708648836915</v>
       </c>
       <c r="M5">
         <v>153.9886482074201</v>
       </c>
       <c r="N5">
+        <v>93.41950997278522</v>
+      </c>
+      <c r="O5">
+        <v>69.42724652042317</v>
+      </c>
+      <c r="P5">
         <v>35.82585695885517</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>148.781452631195</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>74.52382517696257</v>
       </c>
       <c r="S5">
-        <v>145.1254482936258</v>
+        <v>126.4002476288453</v>
+      </c>
+      <c r="T5">
+        <v>40.20467968438243</v>
+      </c>
+      <c r="U5">
+        <v>73.29586217317157</v>
+      </c>
+      <c r="V5">
+        <v>90.59594377308082</v>
       </c>
       <c r="W5">
         <v>48.09407522917462</v>
       </c>
+      <c r="X5">
+        <v>51.25459334335766</v>
+      </c>
       <c r="Y5">
         <v>25.72634869843548</v>
       </c>
       <c r="Z5">
         <v>47.03932569537099</v>
       </c>
+      <c r="AA5">
+        <v>157.5069816240906</v>
+      </c>
       <c r="AB5">
-        <v>54.2948204854036</v>
+        <v>54.8417865266357</v>
+      </c>
+      <c r="AC5">
+        <v>120.7885637643445</v>
+      </c>
+      <c r="AD5">
+        <v>32.9524190771301</v>
+      </c>
+      <c r="AF5">
+        <v>18.26775606485172</v>
+      </c>
+      <c r="AG5">
+        <v>147.820986710179</v>
+      </c>
+      <c r="AH5">
+        <v>23.92039009586299</v>
+      </c>
+      <c r="AI5">
+        <v>37.97633047065539</v>
+      </c>
+      <c r="AJ5">
+        <v>55.41608133187824</v>
+      </c>
+      <c r="AL5">
+        <v>141.4500468389133</v>
+      </c>
+      <c r="AM5">
+        <v>116.0653047574553</v>
+      </c>
+      <c r="AN5">
+        <v>121.9774285735679</v>
+      </c>
+      <c r="AO5">
+        <v>132.2910415312874</v>
+      </c>
+      <c r="AP5">
+        <v>20.58983258845084</v>
       </c>
       <c r="AQ5">
-        <v>53.79644982995338</v>
+        <v>45.33844965749143</v>
       </c>
       <c r="AR5">
-        <v>45.18153852761125</v>
+        <v>46.37373101907571</v>
       </c>
       <c r="AS5">
-        <v>46.35248596432353</v>
+        <v>127.0990773792369</v>
       </c>
       <c r="AT5">
-        <v>32.9524190771301</v>
+        <v>64.76060125643606</v>
       </c>
       <c r="AU5">
-        <v>18.26775606485172</v>
-      </c>
-      <c r="AX5">
-        <v>37.97633047065539</v>
+        <v>48.74017065186495</v>
+      </c>
+      <c r="AV5">
+        <v>51.05293879473552</v>
+      </c>
+      <c r="AY5">
+        <v>141.7390783526283</v>
+      </c>
+      <c r="AZ5">
+        <v>114.3656898330082</v>
+      </c>
+      <c r="BA5">
+        <v>155.4329432255619</v>
       </c>
       <c r="BB5">
-        <v>85.18622516893431</v>
+        <v>140.862191074316</v>
       </c>
       <c r="BC5">
-        <v>78.09378328152674</v>
+        <v>100.149202455042</v>
+      </c>
+      <c r="BD5">
+        <v>99.02014035102243</v>
       </c>
       <c r="BE5">
-        <v>88.80757228341474</v>
+        <v>118.897985989236</v>
+      </c>
+      <c r="BF5">
+        <v>136.1051766156972</v>
+      </c>
+      <c r="BG5">
+        <v>109.6219760759268</v>
+      </c>
+      <c r="BH5">
+        <v>142.0284164374092</v>
       </c>
       <c r="BI5">
-        <v>135.9926190610379</v>
+        <v>95.3151825333811</v>
+      </c>
+      <c r="BJ5">
+        <v>100.4526807371255</v>
       </c>
       <c r="BK5">
-        <v>137.5463895424344</v>
+        <v>137.3774230005513</v>
+      </c>
+      <c r="BM5">
+        <v>101.1917418528416</v>
+      </c>
+      <c r="BN5">
+        <v>108.0452993159011</v>
+      </c>
+      <c r="BO5">
+        <v>124.8677274053023</v>
       </c>
       <c r="BP5">
-        <v>112.5547737378923</v>
-      </c>
-      <c r="BS5">
-        <v>125.6064674556945</v>
+        <v>127.1695818036352</v>
+      </c>
+      <c r="BQ5">
+        <v>89.25360490782641</v>
+      </c>
+      <c r="BR5">
+        <v>126.1757505706095</v>
+      </c>
+      <c r="BT5">
+        <v>88.24682478249662</v>
       </c>
       <c r="BU5">
-        <v>65.16561793890941</v>
+        <v>77.19998440950954</v>
       </c>
       <c r="BV5">
-        <v>147.6528434370366</v>
+        <v>100.8360885299998</v>
+      </c>
+      <c r="BW5">
+        <v>116.5171521694554</v>
+      </c>
+      <c r="BX5">
+        <v>100.2550197269138</v>
+      </c>
+      <c r="BY5">
+        <v>155.3926654128641</v>
       </c>
       <c r="BZ5">
-        <v>83.72693251645181</v>
+        <v>59.97134658091331</v>
+      </c>
+      <c r="CA5">
+        <v>129.7871519509471</v>
+      </c>
+      <c r="CB5">
+        <v>45.05038506568423</v>
       </c>
       <c r="CC5">
-        <v>162.9001100894814</v>
+        <v>26.26353680190568</v>
+      </c>
+      <c r="CD5">
+        <v>61.73353027868848</v>
+      </c>
+      <c r="CE5">
+        <v>30.93427186689328</v>
+      </c>
+      <c r="CF5">
+        <v>11.3040805193832</v>
+      </c>
+      <c r="CG5">
+        <v>47.58664037048934</v>
       </c>
       <c r="CH5">
-        <v>125.1895235972893</v>
+        <v>104.7474041959016</v>
+      </c>
+      <c r="CI5">
+        <v>168.5013232440732</v>
       </c>
       <c r="CK5">
-        <v>112.5927113838623</v>
+        <v>20.86860248068578</v>
+      </c>
+      <c r="CL5">
+        <v>40.21173376495982</v>
+      </c>
+      <c r="CM5">
+        <v>34.07337397087145</v>
+      </c>
+      <c r="CN5">
+        <v>39.08501506184491</v>
+      </c>
+      <c r="CO5">
+        <v>73.42740201928906</v>
       </c>
       <c r="CP5">
-        <v>164.2271381927156</v>
+        <v>171.9216609517097</v>
+      </c>
+      <c r="CQ5">
+        <v>9.9088276142152</v>
+      </c>
+      <c r="CR5">
+        <v>163.209192345732</v>
       </c>
       <c r="CS5">
-        <v>163.209192345732</v>
+        <v>51.6962871004022</v>
+      </c>
+      <c r="CT5">
+        <v>64.17523329710187</v>
+      </c>
+      <c r="CU5">
+        <v>142.2742415036743</v>
+      </c>
+      <c r="CV5">
+        <v>165.2041585750644</v>
+      </c>
+      <c r="CW5">
+        <v>74.47896912872019</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>19.34063699024068</v>
       </c>
+      <c r="C6">
+        <v>75.27298880930633</v>
+      </c>
+      <c r="D6">
+        <v>80.62354796663286</v>
+      </c>
       <c r="E6">
+        <v>128.3296281400679</v>
+      </c>
+      <c r="F6">
         <v>44.91789239162802</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>147.1429816814543</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>121.7729537952175</v>
+      </c>
+      <c r="J6">
         <v>37.44007569334133</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>32.18206783072438</v>
       </c>
-      <c r="K6">
-        <v>58.36744661792035</v>
+      <c r="L6">
+        <v>73.5512304925479</v>
       </c>
       <c r="M6">
         <v>84.36338326374498</v>
       </c>
       <c r="N6">
+        <v>58.36744661792035</v>
+      </c>
+      <c r="O6">
+        <v>70.80649734802211</v>
+      </c>
+      <c r="P6">
         <v>42.98009084896348</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>142.0536150760447</v>
+      </c>
+      <c r="R6">
         <v>60.5024358362605</v>
       </c>
       <c r="S6">
-        <v>95.8868269251511</v>
+        <v>110.4212316263325</v>
+      </c>
+      <c r="T6">
+        <v>59.355480620418</v>
+      </c>
+      <c r="U6">
+        <v>76.74193719055074</v>
+      </c>
+      <c r="V6">
+        <v>93.28176428932704</v>
       </c>
       <c r="W6">
         <v>48.21842173575372</v>
       </c>
+      <c r="X6">
+        <v>62.75158385088961</v>
+      </c>
       <c r="Y6">
         <v>35.75858138007639</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>46.45407049088269</v>
       </c>
       <c r="AA6">
-        <v>154.0219002609432</v>
+        <v>148.6821652855901</v>
       </c>
       <c r="AB6">
-        <v>56.01235756659315</v>
+        <v>60.95927938227295</v>
+      </c>
+      <c r="AC6">
+        <v>113.3890400789542</v>
+      </c>
+      <c r="AD6">
+        <v>37.27165788930913</v>
+      </c>
+      <c r="AF6">
+        <v>26.85876857806605</v>
+      </c>
+      <c r="AG6">
+        <v>136.7658981774856</v>
+      </c>
+      <c r="AH6">
+        <v>29.51450531638444</v>
+      </c>
+      <c r="AI6">
+        <v>41.41846988998121</v>
+      </c>
+      <c r="AJ6">
+        <v>55.2796433037869</v>
+      </c>
+      <c r="AK6">
+        <v>141.3715382937833</v>
+      </c>
+      <c r="AL6">
+        <v>136.7106152468549</v>
+      </c>
+      <c r="AM6">
+        <v>118.9227868345295</v>
+      </c>
+      <c r="AN6">
+        <v>117.7199328059239</v>
+      </c>
+      <c r="AO6">
+        <v>126.5406945292764</v>
+      </c>
+      <c r="AP6">
+        <v>168.2888886965077</v>
       </c>
       <c r="AQ6">
-        <v>54.81615182047368</v>
+        <v>48.73100096462488</v>
       </c>
       <c r="AR6">
-        <v>41.25473194351704</v>
+        <v>48.97183695177235</v>
       </c>
       <c r="AS6">
-        <v>48.30527776413801</v>
+        <v>114.6855326917431</v>
       </c>
       <c r="AT6">
-        <v>37.27165788930913</v>
+        <v>58.32746839403222</v>
       </c>
       <c r="AU6">
-        <v>26.85876857806605</v>
+        <v>47.48058732379039</v>
+      </c>
+      <c r="AV6">
+        <v>52.35677458439427</v>
+      </c>
+      <c r="AW6">
+        <v>153.2157299402699</v>
       </c>
       <c r="AX6">
-        <v>41.41846988998121</v>
+        <v>143.918336425089</v>
+      </c>
+      <c r="AY6">
+        <v>132.7255447334904</v>
       </c>
       <c r="AZ6">
-        <v>85.14683458581669</v>
+        <v>102.3735473510526</v>
+      </c>
+      <c r="BA6">
+        <v>146.4382419886183</v>
       </c>
       <c r="BB6">
-        <v>78.45851440304016</v>
+        <v>112.2794580874141</v>
+      </c>
+      <c r="BC6">
+        <v>89.61622072088656</v>
+      </c>
+      <c r="BD6">
+        <v>87.72410609286668</v>
       </c>
       <c r="BE6">
-        <v>75.41919643052515</v>
+        <v>102.0308482237354</v>
+      </c>
+      <c r="BF6">
+        <v>105.3216714572701</v>
+      </c>
+      <c r="BG6">
+        <v>95.55492276459232</v>
+      </c>
+      <c r="BH6">
+        <v>108.6152049475303</v>
       </c>
       <c r="BI6">
-        <v>108.0471676132884</v>
+        <v>85.14745245933236</v>
       </c>
       <c r="BJ6">
-        <v>92.88002250282392</v>
+        <v>89.2653320745416</v>
       </c>
       <c r="BK6">
-        <v>95.18503237675068</v>
+        <v>116.5483326293017</v>
+      </c>
+      <c r="BL6">
+        <v>116.0247127242998</v>
+      </c>
+      <c r="BM6">
+        <v>90.84729493472057</v>
+      </c>
+      <c r="BN6">
+        <v>89.75448734202885</v>
+      </c>
+      <c r="BO6">
+        <v>110.0524804291176</v>
       </c>
       <c r="BP6">
-        <v>101.3985340875223</v>
+        <v>105.8630319226213</v>
+      </c>
+      <c r="BQ6">
+        <v>80.01306893723228</v>
       </c>
       <c r="BR6">
-        <v>86.96064791642249</v>
+        <v>112.5023067950329</v>
       </c>
       <c r="BS6">
-        <v>112.9720581071558</v>
+        <v>73.0134866032876</v>
+      </c>
+      <c r="BT6">
+        <v>78.09399636857977</v>
       </c>
       <c r="BU6">
-        <v>67.39008824864577</v>
+        <v>63.74297200000606</v>
       </c>
       <c r="BV6">
-        <v>139.201324776851</v>
+        <v>93.56656746217548</v>
+      </c>
+      <c r="BW6">
+        <v>89.91206192197481</v>
+      </c>
+      <c r="BX6">
+        <v>87.82064194411906</v>
+      </c>
+      <c r="BY6">
+        <v>149.3474134424347</v>
       </c>
       <c r="BZ6">
-        <v>126.2862283893782</v>
+        <v>63.74942695514169</v>
       </c>
       <c r="CA6">
-        <v>79.55889799187082</v>
+        <v>121.7495955970202</v>
+      </c>
+      <c r="CB6">
+        <v>56.09122946330235</v>
       </c>
       <c r="CC6">
-        <v>161.7092770984883</v>
+        <v>25.5336249287131</v>
+      </c>
+      <c r="CD6">
+        <v>29.90329282129159</v>
+      </c>
+      <c r="CE6">
+        <v>34.72538254506478</v>
       </c>
       <c r="CF6">
-        <v>15.99959341059962</v>
+        <v>12.38782670136856</v>
       </c>
       <c r="CG6">
-        <v>163.8140826916442</v>
+        <v>51.41306668701228</v>
       </c>
       <c r="CH6">
-        <v>131.5638876806152</v>
+        <v>95.5183354447272</v>
+      </c>
+      <c r="CI6">
+        <v>168.4798106528939</v>
       </c>
       <c r="CK6">
-        <v>98.81426812926416</v>
+        <v>15.29232397893202</v>
+      </c>
+      <c r="CL6">
+        <v>34.25306168484605</v>
+      </c>
+      <c r="CM6">
+        <v>31.08076039556393</v>
       </c>
       <c r="CN6">
-        <v>18.34594312095563</v>
+        <v>46.05522697795497</v>
+      </c>
+      <c r="CO6">
+        <v>81.99029931580178</v>
       </c>
       <c r="CP6">
-        <v>158.3723320332519</v>
+        <v>13.12885224912546</v>
+      </c>
+      <c r="CQ6">
+        <v>9.246935007808659</v>
       </c>
       <c r="CR6">
-        <v>107.8730924218735</v>
+        <v>160.7878630851654</v>
       </c>
       <c r="CS6">
-        <v>160.7878630851654</v>
+        <v>46.33287522413045</v>
+      </c>
+      <c r="CT6">
+        <v>61.71973437152051</v>
+      </c>
+      <c r="CU6">
+        <v>75.88057731700195</v>
+      </c>
+      <c r="CV6">
+        <v>161.4910358209477</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>32.43995701402615</v>
       </c>
+      <c r="C7">
+        <v>79.86733786591546</v>
+      </c>
+      <c r="D7">
+        <v>92.71863405842907</v>
+      </c>
       <c r="E7">
+        <v>131.1046497923262</v>
+      </c>
+      <c r="F7">
         <v>142.5110511651369</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>144.2928990094782</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>138.1650976626684</v>
+      </c>
+      <c r="J7">
         <v>26.73833040109273</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>160.39367304605</v>
       </c>
-      <c r="K7">
-        <v>153.4721784612329</v>
+      <c r="L7">
+        <v>66.07744371579966</v>
       </c>
       <c r="M7">
         <v>151.052099086137</v>
       </c>
       <c r="N7">
+        <v>153.4721784612329</v>
+      </c>
+      <c r="O7">
+        <v>62.04617490985818</v>
+      </c>
+      <c r="P7">
         <v>29.37199764139418</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>153.3911841902927</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>86.74817569341758</v>
       </c>
       <c r="S7">
-        <v>142.5731716114718</v>
+        <v>141.7066244223285</v>
+      </c>
+      <c r="T7">
+        <v>123.9744219659552</v>
+      </c>
+      <c r="U7">
+        <v>72.27551755595661</v>
+      </c>
+      <c r="V7">
+        <v>89.92055923274449</v>
       </c>
       <c r="W7">
         <v>41.68723666177961</v>
       </c>
+      <c r="X7">
+        <v>42.98906412261626</v>
+      </c>
       <c r="Y7">
         <v>25.28750364186552</v>
       </c>
       <c r="Z7">
         <v>48.47626916877656</v>
       </c>
+      <c r="AA7">
+        <v>150.8075124784094</v>
+      </c>
       <c r="AB7">
-        <v>41.4609177117498</v>
+        <v>46.74745251736744</v>
+      </c>
+      <c r="AC7">
+        <v>110.2931846293227</v>
+      </c>
+      <c r="AD7">
+        <v>113.7983744539193</v>
+      </c>
+      <c r="AE7">
+        <v>17.6506037020569</v>
+      </c>
+      <c r="AF7">
+        <v>31.11585752319266</v>
+      </c>
+      <c r="AG7">
+        <v>141.9645437043962</v>
+      </c>
+      <c r="AH7">
+        <v>107.2227333545178</v>
+      </c>
+      <c r="AI7">
+        <v>34.01381593834392</v>
+      </c>
+      <c r="AJ7">
+        <v>46.43100201901912</v>
       </c>
       <c r="AK7">
+        <v>144.3187067472102</v>
+      </c>
+      <c r="AL7">
+        <v>134.993369245859</v>
+      </c>
+      <c r="AM7">
+        <v>111.6342199884441</v>
+      </c>
+      <c r="AN7">
+        <v>114.4603928265487</v>
+      </c>
+      <c r="AO7">
+        <v>128.7875349019935</v>
+      </c>
+      <c r="AP7">
+        <v>164.698103120065</v>
+      </c>
+      <c r="AQ7">
+        <v>44.46183450391301</v>
+      </c>
+      <c r="AR7">
         <v>32.97162382638066</v>
       </c>
-      <c r="AQ7">
-        <v>45.36204115002407</v>
-      </c>
-      <c r="AR7">
-        <v>31.36659161321992</v>
-      </c>
       <c r="AS7">
-        <v>37.70758932330108</v>
+        <v>128.3001995786351</v>
       </c>
       <c r="AT7">
-        <v>113.7983744539193</v>
+        <v>56.21083770891041</v>
       </c>
       <c r="AU7">
-        <v>31.11585752319266</v>
+        <v>61.26215650103879</v>
+      </c>
+      <c r="AV7">
+        <v>41.07397261624665</v>
+      </c>
+      <c r="AW7">
+        <v>147.7983261424744</v>
       </c>
       <c r="AX7">
-        <v>34.01381593834392</v>
+        <v>137.9931945468282</v>
+      </c>
+      <c r="AY7">
+        <v>135.0921096728899</v>
+      </c>
+      <c r="AZ7">
+        <v>115.0932101474068</v>
+      </c>
+      <c r="BA7">
+        <v>155.7237703111636</v>
       </c>
       <c r="BB7">
-        <v>75.36251276740208</v>
+        <v>107.922915448399</v>
       </c>
       <c r="BC7">
-        <v>75.24281014922627</v>
+        <v>100.7491395964864</v>
+      </c>
+      <c r="BD7">
+        <v>97.95773316308994</v>
+      </c>
+      <c r="BE7">
+        <v>119.9736507960316</v>
+      </c>
+      <c r="BF7">
+        <v>129.2009712162662</v>
+      </c>
+      <c r="BG7">
+        <v>105.2538542789282</v>
+      </c>
+      <c r="BH7">
+        <v>130.6950786925721</v>
       </c>
       <c r="BI7">
-        <v>124.0352076452051</v>
+        <v>98.06188120984258</v>
       </c>
       <c r="BJ7">
-        <v>100.6983407107553</v>
+        <v>99.29181106190154</v>
       </c>
       <c r="BK7">
-        <v>95.55611342571638</v>
+        <v>130.3471390560851</v>
+      </c>
+      <c r="BL7">
+        <v>120.5814838367134</v>
+      </c>
+      <c r="BM7">
+        <v>99.4324496206968</v>
+      </c>
+      <c r="BN7">
+        <v>107.2648283098028</v>
+      </c>
+      <c r="BO7">
+        <v>116.6864854429889</v>
       </c>
       <c r="BP7">
-        <v>112.4270055346261</v>
+        <v>114.2100733233787</v>
+      </c>
+      <c r="BQ7">
+        <v>88.07787424449172</v>
       </c>
       <c r="BR7">
-        <v>97.27884443123808</v>
-      </c>
-      <c r="BS7">
-        <v>121.7646410331862</v>
+        <v>119.7332640161728</v>
+      </c>
+      <c r="BT7">
+        <v>86.73527135676355</v>
       </c>
       <c r="BU7">
-        <v>79.98870816998988</v>
+        <v>74.77478747319205</v>
       </c>
       <c r="BV7">
-        <v>147.0285379052772</v>
+        <v>101.0548141277872</v>
+      </c>
+      <c r="BW7">
+        <v>89.78590906240039</v>
+      </c>
+      <c r="BX7">
+        <v>98.84252416069006</v>
+      </c>
+      <c r="BY7">
+        <v>117.1470857868063</v>
+      </c>
+      <c r="BZ7">
+        <v>72.56938748414132</v>
+      </c>
+      <c r="CA7">
+        <v>127.9077448107359</v>
+      </c>
+      <c r="CB7">
+        <v>52.43086437171726</v>
+      </c>
+      <c r="CC7">
+        <v>32.35722227836098</v>
+      </c>
+      <c r="CD7">
+        <v>30.13720122739421</v>
+      </c>
+      <c r="CE7">
+        <v>35.45577611633939</v>
       </c>
       <c r="CF7">
-        <v>15.51118948842168</v>
+        <v>13.77058077352763</v>
       </c>
       <c r="CG7">
-        <v>165.2882240169562</v>
+        <v>53.37612411635541</v>
       </c>
       <c r="CH7">
-        <v>127.2413833976307</v>
+        <v>104.077116161172</v>
+      </c>
+      <c r="CI7">
+        <v>169.5097145189096</v>
+      </c>
+      <c r="CK7">
+        <v>18.58550956086888</v>
+      </c>
+      <c r="CL7">
+        <v>45.98413622356458</v>
+      </c>
+      <c r="CM7">
+        <v>39.68544876259065</v>
+      </c>
+      <c r="CN7">
+        <v>41.6773198754686</v>
+      </c>
+      <c r="CO7">
+        <v>80.52791447929928</v>
+      </c>
+      <c r="CP7">
+        <v>16.11047906070484</v>
+      </c>
+      <c r="CQ7">
+        <v>11.04863909383033</v>
+      </c>
+      <c r="CR7">
+        <v>123.5496606694483</v>
+      </c>
+      <c r="CS7">
+        <v>58.72173236367267</v>
+      </c>
+      <c r="CT7">
+        <v>69.20047378575073</v>
+      </c>
+      <c r="CU7">
+        <v>101.5153986059016</v>
+      </c>
+      <c r="CV7">
+        <v>159.1037039101345</v>
       </c>
     </row>
   </sheetData>
